--- a/Texts/Город Сокровищ/Все персонажи/Лаудред.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Лаудред.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -121,6 +121,141 @@
   </si>
   <si>
     <t xml:space="preserve"> ÜÊ, [CS:N]Äéãìåóó[CR]! Îàòóôðéì îïâúê\näåîû! Ðïñà âèáïäñéóûòÿ é ÒÏÒÑÅÄÏÓÏŒÉÓÛÒŸ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All right! Look SHARP, [CS:N]Diglett[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um0602.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хорошо! ВЫШЕ НОС, [CS:N]Диглетт[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïñïšï! ÂÚŠÅ ÎÏÒ, [CS:N]Äéãìåóó[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um0604.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HEY, you two!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЭЙ, вы двое!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÜÊ, âú äâïå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I thought I smelled something\nawfully ODD coming from over there…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне показалось, что я учуял\nкакой-то УЖАСНО странный аромат...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå ðïëàèàìïòû, œóï ÿ ôœôÿì\nëàëïê-óï ÔÇÀÒÎÏ òóñàîîúê àñïíàó...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did something happen on the\nother floor?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что там наверху случилось?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï óàí îàâåñöô òìôœéìïòû?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um0607.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh...[K] Our Guildmaster is really\na special guy…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Special in all sorts of ways…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух...[K] Наш Гильдмастер и правда\nособенный...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Особенный во всех смыслах этого\nслова...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö...[K] Îàš Ãéìûäíàòóåñ é ðñàâäà\nïòïáåîîúê...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïòïáåîîúê âï âòåö òíúòìàö üóïãï\nòìïâà...</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um0701.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HEY, [CS:N]Diglett[CR]! We GOTTA work\nhard at getting picked for the expedition!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЭЙ, [CS:N]Диглетт[CR]! Нам нужно УСЕРДНО\nтрудиться, чтобы нас взяли в экспедицию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÜÊ, [CS:N]Äéãìåóó[CR]! Îàí îôçîï ÔÒÅÑÄÎÏ\nóñôäéóûòÿ, œóïáú îàò âèÿìé â üëòðåäéøéý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pssst... Yeah, I\'d say you two\nlucked out, getting us to share those [CS:I]Apples[CR]…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um0703.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...I was worried about you two…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Anyway, here\'s to all of us!\nLet\'s work on being picked for the expedition…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пссс... Да, я бы сказал, что\nвам двоим повезло, что мы договорились\nподелиться [CS:I]Яблоками[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Я о вас беспокоился...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Тем не менее, это для вас!\nПоработаем над тем, чтобы нас выбрали в\nэкспедицию...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðòòò... Äà, ÿ áú òëàèàì, œóï\nâàí äâïéí ðïâåèìï, œóï íú äïãïâïñéìéòû\nðïäåìéóûòÿ [CS:I]Ÿáìïëàíé[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Ÿ ï âàò áåòðïëïéìòÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Óåí îå íåîåå, üóï äìÿ âàò!\nÐïñàáïóàåí îàä óåí, œóïáú îàò âúáñàìé â\nüëòðåäéøéý...</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um0805.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good for YOU![K] I\'m glad you two\ngot picked for the expedition too!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The expedition is no walk in the\npark![K] So don\'t GOOF UP and get in my way!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GOT THAT?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ПОНЯТНО?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> МОЛОДЦЫ![K] Я рад, что вас тоже\nвзяли в экспедицию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Экспедиция это не лёгкая\nпрогулка![K] Поэтому не ОБЛАЖАЙТЕСЬ и не\nпутайтесь у меня под ногами!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÍÏÌÏÄØÚ![K] Ÿ ñàä, œóï âàò óïçå\nâèÿìé â üëòðåäéøéý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üëòðåäéøéÿ üóï îå ìæãëàÿ\nðñïãôìëà![K] Ðïüóïíô îå ÏÁÌÀÇÀÊÓÅÒÛ é îå\nðôóàêóåòû ô íåîÿ ðïä îïãàíé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÐÏÎŸÓÎÏ?!</t>
   </si>
 </sst>
 </file>
@@ -533,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,20 +815,223 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="10">
         <v>593</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="11" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="10">
+        <v>762</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4">
+        <v>722</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>731</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8">
+        <v>740</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4">
+        <v>700</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8">
+        <v>703</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="10">
+        <v>681</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="4">
+        <v>656</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>659</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8">
+        <v>662</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="4">
+        <v>631</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>634</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>637</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Лаудред.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Лаудред.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -256,6 +256,30 @@
   </si>
   <si>
     <t xml:space="preserve"> ÐÏÎŸÓÎÏ?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HEY, [CS:N]Diglett[CR]![K] We\'ve been away\nfrom this! We\'d better FOCUS!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЭЙ, [CS:N]Диглетт[CR]![K] Что-то мы\nотвлеклись! Нам нужно СОСРЕДОТОЧИТЬСЯ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÜÊ, [CS:N]Äéãìåóó[CR]![K] Œóï-óï íú\nïóâìåëìéòû! Îàí îôçîï ÒÏÒÑÅÄÏÓÏŒÉÓÛÒŸ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЭЙ, [CS:N]Диглетт[CR]! Наступил новый\nдень! Пора браться за дело и\nСОСРЕДОТОЧИТЬСЯ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÜÊ, [CS:N]Äéãìåóó[CR]! Îàòóôðéì îïâúê\näåîû! Ðïñà áñàóûòÿ èà äåìï é\nÒÏÒÑÅÄÏÓÏŒÉÓÛÒŸ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1105.ssb</t>
   </si>
 </sst>
 </file>
@@ -668,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,17 +1045,69 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8">
         <v>637</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="9" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="10">
+        <v>612</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="10">
+        <v>593</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="10">
+        <v>593</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Лаудред.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Лаудред.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -280,6 +280,48 @@
   </si>
   <si>
     <t>SCRIPT/G01P04A/um1105.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1201.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1203.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can throw a LOT more effort\ninto this!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1508.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я потрачу на всё это ГОРАЗДО\nбольше усилий!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïóñàœô îà âòæ üóï ÃÏÑÀÈÄÏ\náïìûšå ôòéìéê!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1601.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well there\'s nothing we can do\nbut our usual job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, кроме наших повседневных\nдел нам нечем заняться.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, ëñïíå îàšéö ðïâòåäîåâîúö\näåì îàí îåœåí èàîÿóûòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HEY, [CS:N]Diglett[CR]! Let\'s put in a good\nday of sentry duty! That\'ll do for now.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1603.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЭЙ, [CS:N]Диглетт[CR]! Сегодня нам нужно\nхорошенько поработать! Пока что этого\nхватит.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÜÊ, [CS:N]Äéãìåóó[CR]! Òåãïäîÿ îàí îôçîï\nöïñïšåîûëï ðïñàáïóàóû! Ðïëà œóï üóïãï\nöâàóéó.</t>
   </si>
 </sst>
 </file>
@@ -692,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1094,7 +1136,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="10">
@@ -1108,6 +1150,91 @@
       </c>
       <c r="E25" s="11" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="10">
+        <v>593</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="10">
+        <v>593</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10">
+        <v>573</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="10">
+        <v>554</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="4">
+        <v>535</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Лаудред.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Лаудред.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -322,6 +322,51 @@
   </si>
   <si>
     <t xml:space="preserve"> ÜÊ, [CS:N]Äéãìåóó[CR]! Òåãïäîÿ îàí îôçîï\nöïñïšåîûëï ðïñàáïóàóû! Ðïëà œóï üóïãï\nöâàóéó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You two go on ahead to Treasure\nTown and get ready.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When another apprentice comes\nback, I\'ll get them to cover for me while I get\ngeared up.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um2201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Идите в Город Сокровищ и\nподготовьтесь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если сюда придёт другой\nсогильдиец, я попрошу его подменить меня,\nчтобы подготовиться самому.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäéóå â Ãïñïä Òïëñïâéþ é\nðïäãïóïâûóåòû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé òýäà ðñéäæó äñôãïê\nòïãéìûäéåø, ÿ ðïðñïšô åãï ðïäíåîéóû íåîÿ,\nœóïáú ðïäãïóïâéóûòÿ òàíïíô.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um2203.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s all on YOU now!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You have to stop the planet\'s\nparalysis! GOOD LUCK!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/G01P04A/um2401.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Всё теперь зависит от ВАС!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы должны остановить планетарный\nпаралич! УДАЧИ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòæ óåðåñû èàâéòéó ïó ÂÀÒ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú äïìçîú ïòóàîïâéóû ðìàîåóàñîúê\nðàñàìéœ! ÔÄÀŒÉ!</t>
   </si>
 </sst>
 </file>
@@ -734,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1221,20 +1266,85 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="10">
         <v>535</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="11" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="4">
+        <v>510</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="8">
+        <v>513</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="4">
+        <v>488</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>491</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Лаудред.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Лаудред.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="144">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -367,6 +367,90 @@
   </si>
   <si>
     <t xml:space="preserve"> Âú äïìçîú ïòóàîïâéóû ðìàîåóàñîúê\nðàñàìéœ! ÔÄÀŒÉ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um2501.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That...?[K] Thinking about it\neven now…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WAAAAH!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это?..[K] Даже думать об этом...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АААААЙ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï?..[K] Äàçå äôíàóû ïá üóïí...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÀÀÀÀÀÊ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh! HEY, you two![K] Came to visit\nus, did you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...WHAT?[K] You want to earn\nsome money pulling sentry duty?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, you won\'t, HUH?</t>
+  </si>
+  <si>
+    <t>Check High Score</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0105.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О! ЭЙ, вы двое![K] Решили навестить\nнас, да?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...ЧТО?[K] Хотите подзаработать,\nработая стражами?</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, значит нет, А?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï! ÜÊ, âú äâïå![K] Ñåšéìé îàâåòóéóû\nîàò, äà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...ŒÓÏ?[K] Öïóéóå ðïäèàñàáïóàóû,\nñàáïóàÿ òóñàçàíé?</t>
+  </si>
+  <si>
+    <t>Äà</t>
+  </si>
+  <si>
+    <t>Îåó</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, èîàœéó îåó, À?</t>
+  </si>
+  <si>
+    <t>Таблица Рекордов</t>
+  </si>
+  <si>
+    <t>Óàáìéøà Ñåëïñäïâ</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us3102.ssb</t>
   </si>
 </sst>
 </file>
@@ -779,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1333,18 +1417,143 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="4">
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="8">
         <v>491</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="9" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="4">
+        <v>461</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8">
+        <v>469</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="4">
+        <v>400</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="4">
+        <v>403</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>407</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>413</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>418</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>423</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Лаудред.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Лаудред.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="235">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -451,6 +451,279 @@
   </si>
   <si>
     <t>SCRIPT/G01P04A/us3102.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0203.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0301.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0304.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0307.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0309.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0310.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WHOOOOAH!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can...[K]go explore with the\nAWESOME celebs of Team [CS:X]Charm[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s like a...[K]DREAM!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0404.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...What?[K] Sentry duty?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Who gives a YIPPEE-KI-YAY?\nThis is WAY more important!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВАААААААУ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Что?[K] Работа стражами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да кому не всё равно?\nЭто ГОРАЗДО важнее!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Œóï?[K] Ñàáïóà òóñàçàíé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà ëïíô îå âòæ ñàâîï?\nÜóï ÃÏÑÀÈÄÏ âàçîåå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÂÀÀÀÀÀÀÀÔ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òìïâîï...[K] ÂÏ ÒÎÅ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я словно...[K] ВО СНЕ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я смогу...[K] Пойти на вылазку\nвместе с КЛАССНЫМИ звёздами Команды\n[CS:X]Шарм[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òíïãô...[K] Ðïêóé îà âúìàèëô\nâíåòóå ò ËÌÀÒÒÎÚÍÉ èâæèäàíé Ëïíàîäú\n[CS:X]Šàñí[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WHOOOOAH![K] I\'d gone off to that\n[CS:P]Aegis Cave[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ll be honest with you. That\nplace made NO SENSE at all!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wandered around in a circle\nin the same area OVER AND OVER…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No one would come rescue me\nwhen I had an accident…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That place...[K] What WAS that\nall about?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Huff...puff…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВАААААУ![K] Я ходил в\n[CS:P]Пещеру Эгиды[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Буду честен. Я НЕ ПОНИМАЮ,\nчто не так с этим местом!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я постоянно ходил кругами,\nСНОВА И СНОВА...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А когда мне стало дурно, никто\nне пришёл спасать меня...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это место...[K] ЧТО ТАМ\nТВОРИТСЯ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Ухх... Ухх...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÂÀÀÀÀÀÔ![K] Ÿ öïäéì â\n[CS:P]Ðåþåñô Üãéäú[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áôäô œåòóåî. Ÿ ÎÅ ÐÏÎÉÍÀÝ,\nœóï îå óàë ò üóéí íåòóïí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïòóïÿîîï öïäéì ëñôãàíé,\nÒÎÏÂÀ É ÒÎÏÂÀ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À ëïãäà íîå òóàìï äôñîï, îéëóï\nîå ðñéšæì òðàòàóû íåîÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï íåòóï...[K] ŒÓÏ ÓÀÍ\nÓÂÏÑÉÓÒŸ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Ôöö... Ôöö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HEY, I heard you two solved the\nmysteries of [CS:P]Aegis Cave[CR].[K] IMPRESSIVE!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh?[K] ...Say WHAT?[K] You want to\nearn some money pulling sentry duty?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Here you are, famous explorers\nand all, but you want to pull sentry duty?[K]\nI can\'t say I understand why.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whatever.[K] So you want to go on\nsentry duty?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0408.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЭЙ, я слышал, что вы двое решили\nзагадки [CS:P]Пещеры Эгиды[CR].[K] КРУТО!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А?[K] ...ЧТО говорите?[K] Вы хотите\nподзаработать, работая стражами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вот вы все такие известные\nисследователи, но всё равно хотите работать\nстражами?[K] Я вас совсем не понимаю.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как угодно.[K] Хотите поработать\nстражами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÜÊ, ÿ òìúšàì, œóï âú äâïå ñåšéìé\nèàãàäëé [CS:P]Ðåþåñú Üãéäú[CR].[K] ËÑÔÓÏ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À?[K] ...ŒÓÏ ãïâïñéóå?[K] Âú öïóéóå\nðïäèàñàáïóàóû, ñàáïóàÿ òóñàçàíé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïó âú âòå óàëéå éèâåòóîúå\néòòìåäïâàóåìé, îï âòæ ñàâîï öïóéóå ñàáïóàóû\nòóñàçàíé?[K] Ÿ âàò òïâòåí îå ðïîéíàý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë ôãïäîï.[K] Öïóéóå ðïñàáïóàóû\nòóñàçàíé?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2001.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m worried about that little\n[CS:N]Azurill[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WHAT?[K] You\'re volunteering for\nsentry duty now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This is HARDLY the time for\nthat, you two!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2003.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я переживаю за малютку\n[CS:N]Азурилла[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЧТО?[K] Вы хотите работать\nстражами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы двое, вам сейчас СОВСЕМ не\nдо того!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðåñåçéâàý èà íàìýóëô\n[CS:N]Àèôñéììà[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ŒÓÏ?[K] Âú öïóéóå ñàáïóàóû\nòóñàçàíé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú äâïå, âàí òåêœàò ÒÏÂÒÅÍ îå\näï óïãï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WELL?[K] Can you go into that\nkid\'s dream?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2005.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> НУ ЧТО?[K] Вы сможете попасть в\nсон этого малыша?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÎÔ ŒÓÏ?[K] Âú òíïçåóå ðïðàòóû â\nòïî üóïãï íàìúšà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t know what you\'re in for.\nI mean...exploring a dream! Imagine that![K]\nYou dig down deep and TOUGH IT OUT!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не знаю, с чем вы столкнётесь.\nКак бы... Исследовать сон! Это трудно\nпредставить![K] ДОКОПАЙТЕСЬ до сути!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå èîàý, ò œåí âú òóïìëîæóåòû.\nËàë áú... Éòòìåäïâàóû òïî! Üóï óñôäîï\nðñåäòóàâéóû![K] ÄÏËÏÐÀÊÓÅÒÛ äï òôóé!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So did you two learn ANYTHING\nabout the distortion of space?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WHAT?[K] You\'d rather not talk\nabout it? You\'d rather go on sentry duty?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s fine, I suppose.[K] Do a good\njob if you\'re gonna volunteer, you two.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Will you go on sentry duty?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну что, узнали ХОТЬ ЧТО-НИБУДЬ\nпро искажение пространства?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЧТО?[K] Не хотите про это говорить?\nХотите работать стражами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну, ваше дело.[K] Если хотите, то\nпоработайте как следует.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пойдёте работать стражами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô œóï, ôèîàìé ÖÏÓÛ ŒÓÏ-ÎÉÁÔÄÛ\nðñï éòëàçåîéå ðñïòóñàîòóâà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ŒÓÏ?[K] Îå öïóéóå ðñï üóï ãïâïñéóû?\nÖïóéóå ñàáïóàóû òóñàçàíé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô, âàšå äåìï.[K] Åòìé öïóéóå, óï\nðïñàáïóàêóå ëàë òìåäôåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïêäæóå ñàáïóàóû òóñàçàíé?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GO for it, you two!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WHAT?[K] You\'d rather go on\nsentry duty?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ТОЛЬКО вперёд, вы двое!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЧТО?[K] Хотите поработать стражами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÓÏÌÛËÏ âðåñæä, âú äâïå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ŒÓÏ?[K] Öïóéóå ðïñàáïóàóû òóñàçàíé?</t>
   </si>
 </sst>
 </file>
@@ -863,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1500,7 +1773,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B39" s="4">
         <v>407</v>
       </c>
@@ -1514,7 +1790,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="B40" s="4">
         <v>413</v>
       </c>
@@ -1528,7 +1807,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="B41" s="4">
         <v>418</v>
       </c>
@@ -1542,7 +1824,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="B42" s="4">
         <v>423</v>
       </c>
@@ -1553,6 +1838,607 @@
         <v>141</v>
       </c>
       <c r="E42" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="4">
+        <v>345</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>348</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>358</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>371</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="8">
+        <v>380</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="4">
+        <v>284</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="4">
+        <v>287</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>302</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>305</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="4">
+        <v>309</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8">
+        <v>323</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="4">
+        <v>236</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" s="4">
+        <v>239</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B58" s="4">
+        <v>242</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="4">
+        <v>245</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="4">
+        <v>249</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="4">
+        <v>255</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
+        <v>260</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8">
+        <v>265</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="4">
+        <v>204</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="4">
+        <v>207</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8">
+        <v>216</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B67" s="10">
+        <v>185</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8">
+        <v>166</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B69" s="4">
+        <v>118</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B70" s="4">
+        <v>121</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B71" s="4">
+        <v>124</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="4">
+        <v>127</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="4">
+        <v>131</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="4">
+        <v>137</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="4">
+        <v>142</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8">
+        <v>147</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" s="4">
+        <v>70</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="4">
+        <v>73</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B79" s="4">
+        <v>76</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="4">
+        <v>79</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="4">
+        <v>83</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="4">
+        <v>89</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="4">
+        <v>94</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8">
+        <v>99</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>142</v>
       </c>
     </row>

--- a/Texts/Город Сокровищ/Все персонажи/Лаудред.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Лаудред.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="242">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -724,6 +724,27 @@
   </si>
   <si>
     <t xml:space="preserve"> ŒÓÏ?[K] Öïóéóå ðïñàáïóàóû òóñàçàíé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HEY! It\'s you two![K] Came to visit\nyour old friends at the guild?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WHAT?[K] You want to pull sentry\nduty and earn some money?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЭЙ! Это же вы, двое![K] Решили\nнавестить своих старых гильдейских\nтоварищей?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЧТО?[K] Хотите подзаработать,\nработая стражами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ŒÓÏ?[K] Öïóéóå ðïäèàñàáïóàóû,\nñàáïóàÿ òóñàçàíé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÜÊ! Üóï çå âú, äâïå![K] Ñåšéìé\nîàâåòóéóû òâïéö òóàñúö ãéìûäåêòëéö\nóïâàñéþåê?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2302.ssb</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2442,6 +2463,93 @@
         <v>142</v>
       </c>
     </row>
+    <row r="85" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B85" s="4">
+        <v>18</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B86" s="4">
+        <v>21</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="4">
+        <v>25</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="4">
+        <v>41</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="4">
+        <v>46</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="4">
+        <v>51</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
